--- a/Doc/3d_pot_testの比較調査/比較結果/比較結果.xlsx
+++ b/Doc/3d_pot_testの比較調査/比較結果/比較結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\3d_pot_testの比較調査\比較結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5B519F-D7FF-4343-B5E9-0A5AEB74E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB112B3-EEBA-4808-896B-BDD46F2585A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2970" yWindow="0" windowWidth="22770" windowHeight="14970" xr2:uid="{4B4B658B-67ED-44DC-B2AA-676D6ADF1CAB}"/>
   </bookViews>
@@ -34,18 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Itiファイルの取込みが反映されていない</t>
-    <rPh sb="8" eb="10">
-      <t>トリコ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -116,21 +105,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>342086</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>65446</xdr:rowOff>
+      <xdr:colOff>296178</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608382EC-7818-4819-9062-69845375F3F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451C7994-7953-40E8-8DB6-C63BDD21FB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -146,52 +135,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="476250"/>
-          <a:ext cx="6514286" cy="9828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342086</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>65446</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9148EBE0-71D5-477E-9792-E6C687F57874}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10477500"/>
-          <a:ext cx="6514286" cy="9828571"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6468378" cy="7078063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,17 +448,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
